--- a/biology/Botanique/Jardins_Mossèn_Costa_i_Llobera/Jardins_Mossèn_Costa_i_Llobera.xlsx
+++ b/biology/Botanique/Jardins_Mossèn_Costa_i_Llobera/Jardins_Mossèn_Costa_i_Llobera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_Moss%C3%A8n_Costa_i_Llobera</t>
+          <t>Jardins_Mossèn_Costa_i_Llobera</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Jardins de Mossèn Costa i Llobera sont des jardins thématiques de plantes rares, d'une superficie de 6,15 hectares, situés sur la montagne de Montjuïc, à Barcelone.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_Moss%C3%A8n_Costa_i_Llobera</t>
+          <t>Jardins_Mossèn_Costa_i_Llobera</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crées en 1970 et gérés par la mairie de Barcelone, les jardins présentent une importante collection de cactus et d'autres plantes succulentes[1].
-Situés sur le versant est de la montagne de Montjuïc, ils bénéficient d'un microclimat spécifique. Face au port de Barcelone, en contrebas du château de Montjuïc, ils sont aussi connus pour leurs vues panoramiques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crées en 1970 et gérés par la mairie de Barcelone, les jardins présentent une importante collection de cactus et d'autres plantes succulentes.
+Situés sur le versant est de la montagne de Montjuïc, ils bénéficient d'un microclimat spécifique. Face au port de Barcelone, en contrebas du château de Montjuïc, ils sont aussi connus pour leurs vues panoramiques.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardins_Moss%C3%A8n_Costa_i_Llobera</t>
+          <t>Jardins_Mossèn_Costa_i_Llobera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins portent le nom du poète majorquin Miquel Costa i Llobera, également prêtre (en catalan : Mossèn). 
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardins_Moss%C3%A8n_Costa_i_Llobera</t>
+          <t>Jardins_Mossèn_Costa_i_Llobera</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site est accessible par le téléphérique de Montjuïc[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site est accessible par le téléphérique de Montjuïc. 
 </t>
         </is>
       </c>
